--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2730345.029478647</v>
+        <v>2726039.313102575</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>197.8753414835261</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>54.67258472474374</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67.00090002953</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>268.8725363918118</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.35032698453893</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>147.0573117090882</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>106.9049828570325</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>345.19994333911</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>155.2978053024342</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>141.7238404330629</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,16 +1578,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>152.8697920431062</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>66.39615665301106</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>185.7495818221983</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.02356321678085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.01175877060098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>110.6781695176983</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161152</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>216.8180354051602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.56584948763783</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>62.14989839348831</v>
       </c>
       <c r="E37" t="n">
-        <v>33.38664646283072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>180.0572044082426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>112.2919725119092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>107.1685137621098</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528.349585887292</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C2" t="n">
-        <v>1159.387068946881</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>116.1133156248646</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>116.1133156248646</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>109.1678148756612</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1528.349585887292</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>369.875100986773</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>369.875100986773</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>983.457487531274</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="C8" t="n">
-        <v>983.457487531274</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="D8" t="n">
-        <v>983.457487531274</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1579.896877817736</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2127.058082584813</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2556.373128924107</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="W8" t="n">
-        <v>2133.662417832287</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="X8" t="n">
-        <v>1760.196659571207</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="Y8" t="n">
-        <v>1370.057327595396</v>
+        <v>2432.949222346331</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>332.0575713317425</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
-        <v>1478.462327118533</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>545.7406528531229</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="C10" t="n">
-        <v>376.804469925216</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="D10" t="n">
-        <v>376.804469925216</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>376.804469925216</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>376.804469925216</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>766.5332319966531</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5332319966531</v>
+        <v>910.722268902878</v>
       </c>
       <c r="V10" t="n">
-        <v>766.5332319966531</v>
+        <v>656.0377806969911</v>
       </c>
       <c r="W10" t="n">
-        <v>766.5332319966531</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="X10" t="n">
-        <v>766.5332319966531</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="Y10" t="n">
-        <v>545.7406528531229</v>
+        <v>366.6206106600305</v>
       </c>
     </row>
     <row r="11">
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2225.50344847599</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.644930552589</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1246.075525424376</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1018.085974526359</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>797.2933953828287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.9025067654818</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2567.280686761779</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>3164.65917438833</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>3792.257137942937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4344.166868182225</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1063.573343591574</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>894.6371606636669</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>744.5205212513312</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>596.607427668938</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1466.014387565343</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1245.221808421813</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6481,16 +6481,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001555</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>3678.164782873342</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>3450.175231975325</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>3229.382652831795</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.516248701935</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2943.601249219472</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684978</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171305</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>733.4550657171305</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>583.3384263047948</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7268,7 +7268,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1251.82540160009</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1030.857960751344</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>810.0653816078141</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2271.666355830532</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2052.064890853473</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1762.98966419767</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1508.305175991783</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.860446537899</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>74.01734528517878</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>347.1032070028236</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64.53565828418206</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>185.7414866708169</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.5728945814938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34.74287850523298</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.70888054695401</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>69.70496293143083</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>132.68097161099</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>86.46557462472404</v>
       </c>
       <c r="E37" t="n">
-        <v>113.0473161837384</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>106.4657939283484</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>113.417682877128</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.85777223953482</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256046</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256046</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26441,22 +26441,22 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682724</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682807</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225915.9568495606</v>
+        <v>-225915.9568495607</v>
       </c>
       <c r="C6" t="n">
-        <v>364051.9223649836</v>
+        <v>364051.9223649835</v>
       </c>
       <c r="D6" t="n">
         <v>208248.116271189</v>
       </c>
       <c r="E6" t="n">
-        <v>-232135.4780193915</v>
+        <v>-232482.8572737484</v>
       </c>
       <c r="F6" t="n">
-        <v>538917.2133614151</v>
+        <v>538569.8341070582</v>
       </c>
       <c r="G6" t="n">
-        <v>538917.213361415</v>
+        <v>538569.8341070582</v>
       </c>
       <c r="H6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.8341070579</v>
       </c>
       <c r="I6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.834107058</v>
       </c>
       <c r="J6" t="n">
-        <v>362493.9941688222</v>
+        <v>362146.614914465</v>
       </c>
       <c r="K6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.8341070581</v>
       </c>
       <c r="L6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.8341070582</v>
       </c>
       <c r="M6" t="n">
-        <v>414708.7026533567</v>
+        <v>414361.3233990001</v>
       </c>
       <c r="N6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.834107058</v>
       </c>
       <c r="O6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.834107058</v>
       </c>
       <c r="P6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.8341070579</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>156.8077001371568</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>359.1115852960513</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>78.42014799340124</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>17.65046194477918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.3835146789417</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>259.8187340326232</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>105.7468802579335</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>4.041025378303061</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>68.07509941832453</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>144.5368142250341</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31840,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>484.1423712692481</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>279.0775374915851</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33742,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>288.8958573929167</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>297.1808238847177</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.1979415092072</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>212.6331008565868</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>508.2267551530869</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>350.1679638549179</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>136.4812930471406</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>157.5541453095834</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>159.3393849103587</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2726039.313102575</v>
+        <v>2727799.843405361</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>54.67258472474374</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>149.2772438007612</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>67.00090002953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>162.8481409115321</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>147.0573117090882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.46389722690851</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>106.9049828570325</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>326.1230146347445</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>19.59299030330395</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>141.7238404330629</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>135.5795121770518</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>66.39615665301106</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1663,13 +1663,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>31.26260713376563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>106.3434154283418</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>41.55695577161152</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>62.14989839348831</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.3415311720269</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C2" t="n">
-        <v>474.3790142316151</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>116.1133156248646</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>116.1133156248646</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>109.1678148756612</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
         <v>268.5993065148977</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>415.489254012808</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.103316533935</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>728.1407995935235</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>369.875100986773</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>369.875100986773</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2432.949222346331</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>2063.986705405919</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2432.949222346331</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2432.949222346331</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2432.949222346331</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2432.949222346331</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2432.949222346331</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="Y8" t="n">
-        <v>2432.949222346331</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>332.0575713317425</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988471</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2093.514403512715</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2517.482171993552</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.6206106600305</v>
+        <v>220.6238286145414</v>
       </c>
       <c r="C10" t="n">
-        <v>366.6206106600305</v>
+        <v>220.6238286145414</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6206106600305</v>
+        <v>220.6238286145414</v>
       </c>
       <c r="E10" t="n">
-        <v>218.7075170776374</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>910.722268902878</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>656.0377806969911</v>
+        <v>510.040998651502</v>
       </c>
       <c r="W10" t="n">
-        <v>366.6206106600305</v>
+        <v>220.6238286145414</v>
       </c>
       <c r="X10" t="n">
-        <v>366.6206106600305</v>
+        <v>220.6238286145414</v>
       </c>
       <c r="Y10" t="n">
-        <v>366.6206106600305</v>
+        <v>220.6238286145414</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.4712640439268</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>532.5350811160199</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036842</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1621.319028952675</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.901858915714</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.912308017697</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.1197288741665</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5968,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6080,13 +6080,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6311,13 +6311,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6557,10 +6557,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,25 +7311,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7362,7 +7362,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>74.01734528517878</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,13 +8546,13 @@
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>97.03931925844918</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>185.7414866708169</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.70888054695401</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>86.46557462472404</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>280.2941372823665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,28 +26435,28 @@
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682807</v>
+        <v>5677.536566682705</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225915.9568495607</v>
+        <v>-225915.9568495603</v>
       </c>
       <c r="C6" t="n">
         <v>364051.9223649835</v>
       </c>
       <c r="D6" t="n">
-        <v>208248.116271189</v>
+        <v>208248.1162711889</v>
       </c>
       <c r="E6" t="n">
-        <v>-232482.8572737484</v>
+        <v>-232170.2159448272</v>
       </c>
       <c r="F6" t="n">
-        <v>538569.8341070582</v>
+        <v>538882.4754359799</v>
       </c>
       <c r="G6" t="n">
-        <v>538569.8341070582</v>
+        <v>538882.4754359793</v>
       </c>
       <c r="H6" t="n">
-        <v>538569.8341070579</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="I6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.4754359794</v>
       </c>
       <c r="J6" t="n">
-        <v>362146.614914465</v>
+        <v>362459.2562433863</v>
       </c>
       <c r="K6" t="n">
-        <v>538569.8341070581</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="L6" t="n">
-        <v>538569.8341070582</v>
+        <v>538882.4754359794</v>
       </c>
       <c r="M6" t="n">
-        <v>414361.3233990001</v>
+        <v>414673.9647279207</v>
       </c>
       <c r="N6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.4754359792</v>
       </c>
       <c r="O6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.4754359794</v>
       </c>
       <c r="P6" t="n">
-        <v>538569.8341070579</v>
+        <v>538882.4754359794</v>
       </c>
     </row>
   </sheetData>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>359.1115852960513</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>236.9606948552924</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>78.42014799340124</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>49.29739803848682</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>259.8187340326232</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>105.7468802579335</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>43.60808604372448</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>126.8409723432652</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>144.5368142250341</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146293</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>466.5925882502527</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34447,10 +34447,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35257,7 +35257,7 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>212.6331008565868</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
@@ -35266,13 +35266,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>120.0059265331734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>332.6181808359224</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
